--- a/MSE_table.xlsx
+++ b/MSE_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>MSE</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>calss</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,6 +457,11 @@
       <c r="B2" t="n">
         <v>0.1878973395641428</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GDP กับ Set100 ✅</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -460,6 +470,11 @@
       <c r="B3" t="n">
         <v>0.1858482459705406</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GDP Set100 Export ✅</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -468,6 +483,11 @@
       <c r="B4" t="n">
         <v>0.1617986580260628</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GDP Export mech✅</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -476,6 +496,11 @@
       <c r="B5" t="n">
         <v>0.1579745624178687</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GDP Set100 Import ✅</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -484,6 +509,11 @@
       <c r="B6" t="n">
         <v>0.1716381974635027</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GDP กับ import ✅</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -492,6 +522,11 @@
       <c r="B7" t="n">
         <v>0.1514402075425957</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GDP predict GDP ✅</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -499,6 +534,11 @@
       </c>
       <c r="B8" t="n">
         <v>0.183660729238022</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GDP Set100 Import export✅</t>
+        </is>
       </c>
     </row>
   </sheetData>
